--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_341__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_341__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5423,7 +5423,7 @@
                   <c:v>94.47520446777344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.08132934570312</c:v>
+                  <c:v>97.08131408691406</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58.20828247070312</c:v>
@@ -5432,7 +5432,7 @@
                   <c:v>34.37885284423828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.52117919921875</c:v>
+                  <c:v>55.52118301391602</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.17698669433594</c:v>
@@ -5441,7 +5441,7 @@
                   <c:v>97.52473449707031</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.73921203613281</c:v>
+                  <c:v>86.73919677734375</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>97.39439392089844</c:v>
@@ -5453,22 +5453,22 @@
                   <c:v>97.29896545410156</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.85809326171875</c:v>
+                  <c:v>89.85810852050781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77.52786254882812</c:v>
+                  <c:v>77.52787780761719</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>37.55300140380859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.41448974609375</c:v>
+                  <c:v>71.41448211669922</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>72.47149658203125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.59840297698975</c:v>
+                  <c:v>14.59840106964111</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.3798828125</c:v>
@@ -5477,7 +5477,7 @@
                   <c:v>79.58856201171875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.28509902954102</c:v>
+                  <c:v>60.28510284423828</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>63.89988327026367</c:v>
@@ -5498,7 +5498,7 @@
                   <c:v>89.97805786132812</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.44728088378906</c:v>
+                  <c:v>97.447265625</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>66.9263916015625</c:v>
@@ -5519,7 +5519,7 @@
                   <c:v>85.68473815917969</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81.8973388671875</c:v>
+                  <c:v>81.89735412597656</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>37.20884704589844</c:v>
@@ -5528,10 +5528,10 @@
                   <c:v>89.17842102050781</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95.93782043457031</c:v>
+                  <c:v>95.93783569335938</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.92242431640625</c:v>
+                  <c:v>59.92242050170898</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>93.49148559570312</c:v>
@@ -5546,7 +5546,7 @@
                   <c:v>83.88838195800781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79.81295776367188</c:v>
+                  <c:v>79.81294250488281</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90.69876098632812</c:v>
@@ -5561,7 +5561,7 @@
                   <c:v>96.7364501953125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.32969665527344</c:v>
+                  <c:v>97.32968139648438</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>82.50567626953125</c:v>
@@ -5576,25 +5576,25 @@
                   <c:v>75.71835327148438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.91688537597656</c:v>
+                  <c:v>87.9168701171875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.39697265625</c:v>
+                  <c:v>55.39697647094727</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>94.57466125488281</c:v>
+                  <c:v>94.57467651367188</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>78.7630615234375</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52.01703262329102</c:v>
+                  <c:v>52.01703643798828</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>96.62100219726562</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.64498519897461</c:v>
+                  <c:v>48.64498901367188</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>86.54393005371094</c:v>
@@ -5621,7 +5621,7 @@
                   <c:v>97.29293823242188</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.56670379638672</c:v>
+                  <c:v>62.56668853759766</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>82.40251159667969</c:v>
@@ -5642,7 +5642,7 @@
                   <c:v>29.21000480651855</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.96063995361328</c:v>
+                  <c:v>64.96063232421875</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>85.27006530761719</c:v>
@@ -5660,10 +5660,10 @@
                   <c:v>53.29106521606445</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>97.60575866699219</c:v>
+                  <c:v>97.60577392578125</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.5745849609375</c:v>
+                  <c:v>97.57460021972656</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>84.32290649414062</c:v>
@@ -5672,13 +5672,13 @@
                   <c:v>61.62841415405273</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.3677978515625</c:v>
+                  <c:v>90.36781311035156</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.39274597167969</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>81.05615234375</c:v>
+                  <c:v>81.05613708496094</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>79.65913391113281</c:v>
@@ -6443,7 +6443,7 @@
         <v>97.01439999999999</v>
       </c>
       <c r="F4">
-        <v>97.08132934570312</v>
+        <v>97.08131408691406</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>55.52117919921875</v>
+        <v>55.52118301391602</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6611,7 +6611,7 @@
         <v>89.3151</v>
       </c>
       <c r="F10">
-        <v>86.73921203613281</v>
+        <v>86.73919677734375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>89.85809326171875</v>
+        <v>89.85810852050781</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>77.52786254882812</v>
+        <v>77.52787780761719</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>71.41448974609375</v>
+        <v>71.41448211669922</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>14.59840297698975</v>
+        <v>14.59840106964111</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>60.28509902954102</v>
+        <v>60.28510284423828</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.44728088378906</v>
+        <v>97.447265625</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>83.9868</v>
       </c>
       <c r="F36">
-        <v>81.8973388671875</v>
+        <v>81.89735412597656</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>95.93782043457031</v>
+        <v>95.93783569335938</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>59.92242431640625</v>
+        <v>59.92242050170898</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>79.81295776367188</v>
+        <v>79.81294250488281</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>97.32969665527344</v>
+        <v>97.32968139648438</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>87.91688537597656</v>
+        <v>87.9168701171875</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>55.39697265625</v>
+        <v>55.39697647094727</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>94.57466125488281</v>
+        <v>94.57467651367188</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>52.01703262329102</v>
+        <v>52.01703643798828</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>48.64498519897461</v>
+        <v>48.64498901367188</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.56670379638672</v>
+        <v>62.56668853759766</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>64.96063995361328</v>
+        <v>64.96063232421875</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>97.51990000000001</v>
       </c>
       <c r="F83">
-        <v>97.60575866699219</v>
+        <v>97.60577392578125</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.5826</v>
       </c>
       <c r="F84">
-        <v>97.5745849609375</v>
+        <v>97.57460021972656</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>90.3677978515625</v>
+        <v>90.36781311035156</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>80.2504</v>
       </c>
       <c r="F89">
-        <v>81.05615234375</v>
+        <v>81.05613708496094</v>
       </c>
     </row>
     <row r="90" spans="1:6">
